--- a/public/assets/docs/products.xlsx
+++ b/public/assets/docs/products.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBF184-A3E9-47DB-89E4-479E25966DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C363B8-23C7-41D6-BE3A-FD54D368656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0A5F1DB-5D5A-4260-B600-0A48D22090D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Product Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="232">
   <si>
     <t>Category</t>
   </si>
@@ -74,9 +72,6 @@
     <t>Box</t>
   </si>
   <si>
-    <t>sdas</t>
-  </si>
-  <si>
     <t>SINGLE VISION</t>
   </si>
   <si>
@@ -87,6 +82,657 @@
   </si>
   <si>
     <t>HMC BLUE</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>+30.00</t>
+  </si>
+  <si>
+    <t>+29.50</t>
+  </si>
+  <si>
+    <t>+29.00</t>
+  </si>
+  <si>
+    <t>+28.50</t>
+  </si>
+  <si>
+    <t>+28.00</t>
+  </si>
+  <si>
+    <t>+27.50</t>
+  </si>
+  <si>
+    <t>+27.00</t>
+  </si>
+  <si>
+    <t>+26.50</t>
+  </si>
+  <si>
+    <t>+26.00</t>
+  </si>
+  <si>
+    <t>+25.50</t>
+  </si>
+  <si>
+    <t>+25.00</t>
+  </si>
+  <si>
+    <t>+24.50</t>
+  </si>
+  <si>
+    <t>+24.00</t>
+  </si>
+  <si>
+    <t>+23.50</t>
+  </si>
+  <si>
+    <t>+23.00</t>
+  </si>
+  <si>
+    <t>+22.50</t>
+  </si>
+  <si>
+    <t>+22.00</t>
+  </si>
+  <si>
+    <t>+21.50</t>
+  </si>
+  <si>
+    <t>+21.00</t>
+  </si>
+  <si>
+    <t>+20.50</t>
+  </si>
+  <si>
+    <t>+20.00</t>
+  </si>
+  <si>
+    <t>+19.75</t>
+  </si>
+  <si>
+    <t>+19.50</t>
+  </si>
+  <si>
+    <t>+19.25</t>
+  </si>
+  <si>
+    <t>+19.00</t>
+  </si>
+  <si>
+    <t>+18.75</t>
+  </si>
+  <si>
+    <t>+18.50</t>
+  </si>
+  <si>
+    <t>+18.25</t>
+  </si>
+  <si>
+    <t>+18.00</t>
+  </si>
+  <si>
+    <t>+17.75</t>
+  </si>
+  <si>
+    <t>+17.50</t>
+  </si>
+  <si>
+    <t>+17.25</t>
+  </si>
+  <si>
+    <t>+17.00</t>
+  </si>
+  <si>
+    <t>+16.75</t>
+  </si>
+  <si>
+    <t>+16.50</t>
+  </si>
+  <si>
+    <t>+16.25</t>
+  </si>
+  <si>
+    <t>+16.00</t>
+  </si>
+  <si>
+    <t>+15.75</t>
+  </si>
+  <si>
+    <t>+15.50</t>
+  </si>
+  <si>
+    <t>+15.25</t>
+  </si>
+  <si>
+    <t>+15.00</t>
+  </si>
+  <si>
+    <t>+14.75</t>
+  </si>
+  <si>
+    <t>+14.50</t>
+  </si>
+  <si>
+    <t>+14.25</t>
+  </si>
+  <si>
+    <t>+14.00</t>
+  </si>
+  <si>
+    <t>+13.75</t>
+  </si>
+  <si>
+    <t>+13.50</t>
+  </si>
+  <si>
+    <t>+13.25</t>
+  </si>
+  <si>
+    <t>+13.00</t>
+  </si>
+  <si>
+    <t>+12.75</t>
+  </si>
+  <si>
+    <t>+12.50</t>
+  </si>
+  <si>
+    <t>+12.25</t>
+  </si>
+  <si>
+    <t>+12.00</t>
+  </si>
+  <si>
+    <t>+11.75</t>
+  </si>
+  <si>
+    <t>+11.50</t>
+  </si>
+  <si>
+    <t>+11.25</t>
+  </si>
+  <si>
+    <t>+11.00</t>
+  </si>
+  <si>
+    <t>+10.75</t>
+  </si>
+  <si>
+    <t>+10.50</t>
+  </si>
+  <si>
+    <t>+10.25</t>
+  </si>
+  <si>
+    <t>+10.00</t>
+  </si>
+  <si>
+    <t>+9.75</t>
+  </si>
+  <si>
+    <t>+9.50</t>
+  </si>
+  <si>
+    <t>+9.25</t>
+  </si>
+  <si>
+    <t>+9.00</t>
+  </si>
+  <si>
+    <t>+8.75</t>
+  </si>
+  <si>
+    <t>+8.50</t>
+  </si>
+  <si>
+    <t>+8.25</t>
+  </si>
+  <si>
+    <t>+8.00</t>
+  </si>
+  <si>
+    <t>+7.75</t>
+  </si>
+  <si>
+    <t>+7.50</t>
+  </si>
+  <si>
+    <t>+7.25</t>
+  </si>
+  <si>
+    <t>+7.00</t>
+  </si>
+  <si>
+    <t>+6.75</t>
+  </si>
+  <si>
+    <t>+6.50</t>
+  </si>
+  <si>
+    <t>+6.25</t>
+  </si>
+  <si>
+    <t>+6.00</t>
+  </si>
+  <si>
+    <t>+5.75</t>
+  </si>
+  <si>
+    <t>+5.50</t>
+  </si>
+  <si>
+    <t>+5.25</t>
+  </si>
+  <si>
+    <t>+5.00</t>
+  </si>
+  <si>
+    <t>+4.75</t>
+  </si>
+  <si>
+    <t>+4.50</t>
+  </si>
+  <si>
+    <t>+4.25</t>
+  </si>
+  <si>
+    <t>+4.00</t>
+  </si>
+  <si>
+    <t>+3.75</t>
+  </si>
+  <si>
+    <t>+3.50</t>
+  </si>
+  <si>
+    <t>+3.25</t>
+  </si>
+  <si>
+    <t>+3.00</t>
+  </si>
+  <si>
+    <t>+2.75</t>
+  </si>
+  <si>
+    <t>+2.50</t>
+  </si>
+  <si>
+    <t>+2.25</t>
+  </si>
+  <si>
+    <t>+2.00</t>
+  </si>
+  <si>
+    <t>+1.75</t>
+  </si>
+  <si>
+    <t>+1.50</t>
+  </si>
+  <si>
+    <t>+1.25</t>
+  </si>
+  <si>
+    <t>+1.00</t>
+  </si>
+  <si>
+    <t>+0.75</t>
+  </si>
+  <si>
+    <t>+0.50</t>
+  </si>
+  <si>
+    <t>+0.25</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>-0.75</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>-1.25</t>
+  </si>
+  <si>
+    <t>-1.50</t>
+  </si>
+  <si>
+    <t>-1.75</t>
+  </si>
+  <si>
+    <t>-2.00</t>
+  </si>
+  <si>
+    <t>-2.25</t>
+  </si>
+  <si>
+    <t>-2.50</t>
+  </si>
+  <si>
+    <t>-2.75</t>
+  </si>
+  <si>
+    <t>-3.00</t>
+  </si>
+  <si>
+    <t>-3.25</t>
+  </si>
+  <si>
+    <t>-3.50</t>
+  </si>
+  <si>
+    <t>-3.75</t>
+  </si>
+  <si>
+    <t>-4.00</t>
+  </si>
+  <si>
+    <t>-4.25</t>
+  </si>
+  <si>
+    <t>-4.50</t>
+  </si>
+  <si>
+    <t>-4.75</t>
+  </si>
+  <si>
+    <t>-5.00</t>
+  </si>
+  <si>
+    <t>-5.25</t>
+  </si>
+  <si>
+    <t>-5.50</t>
+  </si>
+  <si>
+    <t>-5.75</t>
+  </si>
+  <si>
+    <t>-6.00</t>
+  </si>
+  <si>
+    <t>-6.25</t>
+  </si>
+  <si>
+    <t>-6.50</t>
+  </si>
+  <si>
+    <t>-6.75</t>
+  </si>
+  <si>
+    <t>-7.00</t>
+  </si>
+  <si>
+    <t>-7.25</t>
+  </si>
+  <si>
+    <t>-7.50</t>
+  </si>
+  <si>
+    <t>-7.75</t>
+  </si>
+  <si>
+    <t>-8.00</t>
+  </si>
+  <si>
+    <t>-8.25</t>
+  </si>
+  <si>
+    <t>-8.50</t>
+  </si>
+  <si>
+    <t>-8.75</t>
+  </si>
+  <si>
+    <t>-9.00</t>
+  </si>
+  <si>
+    <t>-9.25</t>
+  </si>
+  <si>
+    <t>-9.50</t>
+  </si>
+  <si>
+    <t>-9.75</t>
+  </si>
+  <si>
+    <t>-10.00</t>
+  </si>
+  <si>
+    <t>-10.25</t>
+  </si>
+  <si>
+    <t>-10.50</t>
+  </si>
+  <si>
+    <t>-10.75</t>
+  </si>
+  <si>
+    <t>-11.00</t>
+  </si>
+  <si>
+    <t>-11.25</t>
+  </si>
+  <si>
+    <t>-11.50</t>
+  </si>
+  <si>
+    <t>-11.75</t>
+  </si>
+  <si>
+    <t>-12.00</t>
+  </si>
+  <si>
+    <t>-12.25</t>
+  </si>
+  <si>
+    <t>-12.50</t>
+  </si>
+  <si>
+    <t>-12.75</t>
+  </si>
+  <si>
+    <t>-13.00</t>
+  </si>
+  <si>
+    <t>-13.25</t>
+  </si>
+  <si>
+    <t>-13.50</t>
+  </si>
+  <si>
+    <t>-13.75</t>
+  </si>
+  <si>
+    <t>-14.00</t>
+  </si>
+  <si>
+    <t>-14.25</t>
+  </si>
+  <si>
+    <t>-14.50</t>
+  </si>
+  <si>
+    <t>-14.75</t>
+  </si>
+  <si>
+    <t>-15.00</t>
+  </si>
+  <si>
+    <t>-15.25</t>
+  </si>
+  <si>
+    <t>-15.50</t>
+  </si>
+  <si>
+    <t>-15.75</t>
+  </si>
+  <si>
+    <t>-16.00</t>
+  </si>
+  <si>
+    <t>-16.25</t>
+  </si>
+  <si>
+    <t>-16.50</t>
+  </si>
+  <si>
+    <t>-16.75</t>
+  </si>
+  <si>
+    <t>-17.00</t>
+  </si>
+  <si>
+    <t>-17.25</t>
+  </si>
+  <si>
+    <t>-17.50</t>
+  </si>
+  <si>
+    <t>-17.75</t>
+  </si>
+  <si>
+    <t>-18.00</t>
+  </si>
+  <si>
+    <t>-18.25</t>
+  </si>
+  <si>
+    <t>-18.50</t>
+  </si>
+  <si>
+    <t>-18.75</t>
+  </si>
+  <si>
+    <t>-19.00</t>
+  </si>
+  <si>
+    <t>-19.25</t>
+  </si>
+  <si>
+    <t>-19.50</t>
+  </si>
+  <si>
+    <t>-19.75</t>
+  </si>
+  <si>
+    <t>-20.00</t>
+  </si>
+  <si>
+    <t>-20.50</t>
+  </si>
+  <si>
+    <t>-21.00</t>
+  </si>
+  <si>
+    <t>-21.50</t>
+  </si>
+  <si>
+    <t>-22.00</t>
+  </si>
+  <si>
+    <t>-22.50</t>
+  </si>
+  <si>
+    <t>-23.00</t>
+  </si>
+  <si>
+    <t>-23.50</t>
+  </si>
+  <si>
+    <t>-24.00</t>
+  </si>
+  <si>
+    <t>-24.50</t>
+  </si>
+  <si>
+    <t>-25.00</t>
+  </si>
+  <si>
+    <t>-25.50</t>
+  </si>
+  <si>
+    <t>-26.00</t>
+  </si>
+  <si>
+    <t>-27.50</t>
+  </si>
+  <si>
+    <t>-28.00</t>
+  </si>
+  <si>
+    <t>-28.50</t>
+  </si>
+  <si>
+    <t>-29.00</t>
+  </si>
+  <si>
+    <t>-29.50</t>
+  </si>
+  <si>
+    <t>-30.00</t>
+  </si>
+  <si>
+    <t>-26.50</t>
+  </si>
+  <si>
+    <t>-27.00</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>4.00</t>
   </si>
 </sst>
 </file>
@@ -122,8 +768,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,20 +1105,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB0FA37-055A-4F5D-A8A6-812300A989B8}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,45 +1151,1864 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50" xr:uid="{00F076CD-2CB6-47C6-9BE6-AB8F80A0A7DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A50" xr:uid="{00F076CD-2CB6-47C6-9BE6-AB8F80A0A7DF}">
       <formula1>"BIFOCAL,PROGRESSIVE,SINGLE VISION"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50" xr:uid="{F57E350A-32B4-431E-9987-0020DDA9236A}">
-      <formula1>"KBF BLUEBLOCK,KBF PGX,KBF WT,SINGLE VISION 1.5,SV BLUEBLOCK 1.56,SV BLUEBLOCK 1.60"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{9A1D26F8-6647-409E-AF53-9A397844E822}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50" xr:uid="{9A1D26F8-6647-409E-AF53-9A397844E822}">
       <formula1>"PLASTIC,GLASS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50" xr:uid="{B386BA03-68B2-4E31-9DB9-2A3C3076A3DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{B386BA03-68B2-4E31-9DB9-2A3C3076A3DF}">
       <formula1>"HC,HMC BLUE,HMC GREEN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{21DAAD6B-C9B8-4C7C-A1D6-555D7E026DDB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50" xr:uid="{21DAAD6B-C9B8-4C7C-A1D6-555D7E026DDB}">
       <formula1>"RE,LE,BOTH"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50" xr:uid="{33A11E09-2C49-4B17-A2F8-9FE5AA72B2A5}">
+      <formula1>"KBF BLUEBLOCK,KBF PGX,KBF WT,SINGLE VISION 1.5,SV BLUEBLOCK 1.56,SV BLUEBLOCK 1.60,SV POLY 1.59,SV POLY BLUEBLOCK 1.59,PROG WT 1.50,PROG BLUEBLOCK 1.50"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CECCB616-BB53-401F-992D-826ADCFD91B2}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$202</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBE49115-1EBC-4CE6-AE87-BCE4D0DA6712}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$2:$B$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E87430A-00C7-4539-9006-691D12977240}">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$2:$C$182</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43E306AF-8B7F-4922-A163-771E659CE2D0}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$2:$D$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DAEB0F-DC7B-4EB0-A953-F568F6553D58}">
+  <dimension ref="A1:D202"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>